--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D09C8F-E69C-4D8F-994E-C909535D536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA1AED-195F-4D31-BA50-273096E3BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
     <sheet name="Placeholders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -433,7 +444,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,6 +491,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="D3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -491,6 +506,10 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -502,6 +521,10 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -513,6 +536,10 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -524,6 +551,10 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -535,6 +566,10 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -546,6 +581,10 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9" t="str">
+        <f>""</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -556,6 +595,10 @@
       </c>
       <c r="C10" t="s">
         <v>14</v>
+      </c>
+      <c r="D10" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA1AED-195F-4D31-BA50-273096E3BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E5E0B-AA69-4F15-9265-55E19A0EC9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Key</t>
   </si>
@@ -106,6 +106,36 @@
   </si>
   <si>
     <t>Nein</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>Anwenden</t>
+  </si>
+  <si>
+    <t>Beenden</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Select Player</t>
+  </si>
+  <si>
+    <t>SelectPlayer</t>
+  </si>
+  <si>
+    <t>Spieler Ändern</t>
   </si>
 </sst>
 </file>
@@ -441,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,13 +588,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" t="str">
         <f>""</f>
@@ -573,13 +603,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D9" t="str">
         <f>""</f>
@@ -588,15 +618,90 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D14" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="str">
         <f>""</f>
         <v/>
       </c>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E5E0B-AA69-4F15-9265-55E19A0EC9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD81E1-F331-4A74-A949-AFE4B9EDD607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Key</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Spieler Ändern</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>PlayAgain</t>
+  </si>
+  <si>
+    <t>Play Again</t>
+  </si>
+  <si>
+    <t>Nochmal Spielen</t>
   </si>
 </sst>
 </file>
@@ -471,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,6 +717,36 @@
         <v>32</v>
       </c>
       <c r="D15" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="str">
         <f>""</f>
         <v/>
       </c>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD81E1-F331-4A74-A949-AFE4B9EDD607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F71E545-77AF-43FC-9811-59D8BD60C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Key</t>
   </si>
@@ -151,6 +151,45 @@
   </si>
   <si>
     <t>Nochmal Spielen</t>
+  </si>
+  <si>
+    <t>Level1Name</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Stufe 1</t>
+  </si>
+  <si>
+    <t>Poziom 1</t>
+  </si>
+  <si>
+    <t>Wstecz</t>
+  </si>
+  <si>
+    <t>Jeszcze Raz</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Stufe 2</t>
+  </si>
+  <si>
+    <t>Stufe 3</t>
+  </si>
+  <si>
+    <t>Poziom 3</t>
+  </si>
+  <si>
+    <t>Level2Name</t>
+  </si>
+  <si>
+    <t>Level3Name</t>
   </si>
 </sst>
 </file>
@@ -486,19 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -526,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -541,7 +580,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -556,7 +595,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -571,7 +610,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -586,7 +625,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -601,7 +640,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -616,7 +655,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -631,7 +670,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -646,7 +685,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -661,7 +700,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -676,7 +715,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -691,7 +730,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -706,7 +745,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -721,7 +760,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -731,12 +770,11 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -746,9 +784,50 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -765,22 +844,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F71E545-77AF-43FC-9811-59D8BD60C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2888F92A-A990-4767-8B15-D3597902C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Key</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>Level3Name</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Przerwa</t>
+  </si>
+  <si>
+    <t>Zmień Gracza</t>
+  </si>
+  <si>
+    <t>Zabawmy się!</t>
+  </si>
+  <si>
+    <t>Zastosój</t>
+  </si>
+  <si>
+    <t>Koniec</t>
+  </si>
+  <si>
+    <t>Dalej</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nie</t>
   </si>
 </sst>
 </file>
@@ -525,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,9 +602,8 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,9 +616,8 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,9 +630,8 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,9 +644,8 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,9 +688,8 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,9 +702,8 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,9 +731,8 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,9 +745,8 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,9 +774,8 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,6 +846,20 @@
       </c>
       <c r="D20" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2888F92A-A990-4767-8B15-D3597902C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E08C2-200C-4C25-A56F-AB384CEEC057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Key</t>
   </si>
@@ -217,6 +217,39 @@
   </si>
   <si>
     <t>Nie</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Ustawienia</t>
+  </si>
+  <si>
+    <t>LangName_EN</t>
+  </si>
+  <si>
+    <t>LangName_DE</t>
+  </si>
+  <si>
+    <t>LangName_PL</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Polski</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Język</t>
   </si>
 </sst>
 </file>
@@ -552,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +893,76 @@
       </c>
       <c r="D21" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E08C2-200C-4C25-A56F-AB384CEEC057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9886FA-891F-497F-BA1B-A6037DA04A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Key</t>
   </si>
@@ -250,6 +250,39 @@
   </si>
   <si>
     <t>Język</t>
+  </si>
+  <si>
+    <t>Hallo, {0}</t>
+  </si>
+  <si>
+    <t>Hello, {0}</t>
+  </si>
+  <si>
+    <t>HelloPlayerName</t>
+  </si>
+  <si>
+    <t>CreatedAtStamp</t>
+  </si>
+  <si>
+    <t>PlaytimeStamp</t>
+  </si>
+  <si>
+    <t>Created: {0}</t>
+  </si>
+  <si>
+    <t>Playtime: {0}</t>
+  </si>
+  <si>
+    <t>Spielzeit: {0}</t>
+  </si>
+  <si>
+    <t>Czas grania: {0}</t>
+  </si>
+  <si>
+    <t>Założono: {0}</t>
+  </si>
+  <si>
+    <t>Erstellt: {0}</t>
   </si>
 </sst>
 </file>
@@ -585,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +996,48 @@
       </c>
       <c r="D26" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9886FA-891F-497F-BA1B-A6037DA04A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637E86F-359D-4A6D-AFF5-94A11FE1EA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Key</t>
   </si>
@@ -252,12 +252,6 @@
     <t>Język</t>
   </si>
   <si>
-    <t>Hallo, {0}</t>
-  </si>
-  <si>
-    <t>Hello, {0}</t>
-  </si>
-  <si>
     <t>HelloPlayerName</t>
   </si>
   <si>
@@ -283,6 +277,24 @@
   </si>
   <si>
     <t>Erstellt: {0}</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Willkommen!</t>
+  </si>
+  <si>
+    <t>Welcome!</t>
+  </si>
+  <si>
+    <t>Witaj!</t>
+  </si>
+  <si>
+    <t>Hallo, {0}!</t>
+  </si>
+  <si>
+    <t>Hello, {0}!</t>
   </si>
 </sst>
 </file>
@@ -618,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,44 +1012,58 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637E86F-359D-4A6D-AFF5-94A11FE1EA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045996E4-5BA4-4845-B101-28ABD6E77387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>Key</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>Hello, {0}!</t>
+  </si>
+  <si>
+    <t>LevelCompleteTitle</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Super!</t>
   </si>
 </sst>
 </file>
@@ -630,19 +639,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -684,7 +693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -698,7 +707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -712,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -726,7 +735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -741,7 +750,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -756,7 +765,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -770,7 +779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -784,7 +793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -799,7 +808,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -813,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -827,7 +836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -842,7 +851,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -856,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -870,7 +879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -884,7 +893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -898,7 +907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -912,7 +921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -926,7 +935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -940,7 +949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -954,7 +963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -968,7 +977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -982,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -1064,6 +1073,20 @@
       </c>
       <c r="D30" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1080,22 +1103,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045996E4-5BA4-4845-B101-28ABD6E77387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF5871-150B-471D-8F71-A7481318AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Key</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t>Super!</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Mitwirkende</t>
+  </si>
+  <si>
+    <t>Załoga</t>
+  </si>
+  <si>
+    <t>HowToPlay</t>
+  </si>
+  <si>
+    <t>How to Play</t>
+  </si>
+  <si>
+    <t>Spielanleitung</t>
+  </si>
+  <si>
+    <t>Jak Grać</t>
+  </si>
+  <si>
+    <t>OpenSourceNotice</t>
+  </si>
+  <si>
+    <t>This game is open source. You can find it on &lt;color=#A52A2A&gt;&lt;link source="githuburl"&gt;GitHub  \uf35d&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Pestępój</t>
   </si>
 </sst>
 </file>
@@ -639,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,9 +775,8 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,9 +789,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,6 +1115,50 @@
       </c>
       <c r="D31" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFF5871-150B-471D-8F71-A7481318AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8DB5B-A65D-4787-BE67-FB6B76810795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Key</t>
   </si>
@@ -334,6 +334,78 @@
   </si>
   <si>
     <t>Pestępój</t>
+  </si>
+  <si>
+    <t>SongLyrics</t>
+  </si>
+  <si>
+    <t>LoreDescription</t>
+  </si>
+  <si>
+    <t>W zielonym lesie, w głębokim borze
+Siedział krasnalek na muchomorze.
+Wiatr borem niesie, odgłos daleki
+Krasnalek wbija ogromne ćwieki.
+Budzi się sowa, i pyta "Kto tu,
+narobił w lesie tyle łomotu?"
+I rozgniewana, czem prędzej leci,
+"Proszę nie stukać, śpią moje dzieci!"
+"Oj, pani sowo, cóż biedny zrobię?
+Domek zepsuty naprawiam sobie.
+Gdy się rozleci domek malutki,
+gdzie się podzieją me krasnoludki?"
+I pani sowa się zlitowała,
+Krasnoludkowi pukać kazała.
+"Oj pukaj, pukaj, mój krasnoludku
+I żyj spokojnie wśród swego ludku."
+I krasnoludek domek naprawił:
+Komin, dach, okna, drzwi nowe wstawił.
+I już się nie bał złej zimy skutków,
+Lecz żył spokojnie wśród krasnoludków.</t>
+  </si>
+  <si>
+    <t>Im grünen Wald, tief im dichten Forst
+Saß ein Gnom auf einem Fliegenpilz
+Der Wind trägt laute Töne durch den Forst
+Der Gnom schlägt große Nägel ein
+Es erwacht die Eule und fragt "Wer nur,
+macht hier im Walde, solch einen Krach?"
+So erzürnt fliegt sie geschwind
+"Bitte hör auf zu hämmern, meine Kinder schlafen!"
+"Oh Frau Eule, was solch ich nur tun?
+Ich repariere mein kaputtes Haus.
+Wenn mein kleines Häuschen zerfällt,
+wo werden dann meine Gnome leben?"
+Und die Eule erbarmte sich
+Und gebot dem Gnom zu hämmern.
+"Oh hämmere, hämmere, mein Gnom
+Und lebe in Ruhe mit deinem Völkchen."
+So reparierte der Gnom denn das Haus:
+Schornstein, Dach, Fenster und auch neue Türen.
+So dass er keine Furcht mehr vor dem bösen Winter hatte
+Sondern ruhig mit seinem Völkchen lebte.</t>
+  </si>
+  <si>
+    <t>In the green forest, in the deep woods
+There sat a gnome on a toadstool.
+Through the woods the wind carries a distant sound,
+The gnome drives in enormous nails
+The owl awakes and asks "Who here
+In the forest makes such a racket?"
+So enraged she swiftly flies,
+"Please stop hammering, my children are sleeping!"
+"Oh Misses Owl, what should poor me do?
+I am repairing my broken house.
+When this small house falls apart,
+Where will my fellow gnomes live?"
+And the owl had mercy
+And allowed the gnome to hammer.
+"Oh hammer away, my dear gnome
+And live in peace amongst your people!"
+And the gnome repaired the house:
+Chimney, roof, windows, a new door as well.
+And no more did he fear the consequences of bad winter
+But lived peacefully amongst his people.</t>
   </si>
 </sst>
 </file>
@@ -385,10 +457,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,16 +744,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="4" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,6 +1236,37 @@
       <c r="D34" t="str">
         <f>""</f>
         <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8DB5B-A65D-4787-BE67-FB6B76810795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E94A6-F3FB-4F14-92D1-21ED93F7B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Key</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>Great!</t>
-  </si>
-  <si>
-    <t>Super!</t>
   </si>
   <si>
     <t>Credits</t>
@@ -406,6 +403,12 @@
 Chimney, roof, windows, a new door as well.
 And no more did he fear the consequences of bad winter
 But lived peacefully amongst his people.</t>
+  </si>
+  <si>
+    <t>Großartig!</t>
+  </si>
+  <si>
+    <t>Świetnie!</t>
   </si>
 </sst>
 </file>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,46 +1191,46 @@
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
       </c>
       <c r="C34" t="str">
         <f>""</f>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="str">
         <f>""</f>
@@ -1257,16 +1260,16 @@
     </row>
     <row r="36" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E94A6-F3FB-4F14-92D1-21ED93F7B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB5FB5E-E3D0-4B29-BAB1-F5A7BAA707A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>Key</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>Świetnie!</t>
+  </si>
+  <si>
+    <t>Witaj, jak masy na imie?</t>
+  </si>
+  <si>
+    <t>Ta gra powstała na podstawie piosenki, którą matka mi przekazała ustnie. Nie znalazłem oficjalnej wersji, więc tekst i melodia mogą się różnić od tego, co mogło zostać przekazane Tobie.</t>
+  </si>
+  <si>
+    <t>Dieses Spiel basiert auf einem alten, polnischen Kinderlied, welches mündlich überliefert wurde. Die Melodie und der Text sind so, wie ich es kenne, aber Sie könnten eine leicht unterschiedliche Version kennen.</t>
+  </si>
+  <si>
+    <t>This game is based on an old Polish children's song, passed down orally. The music is based on the melody I was taught, but you might know a slightly different version of it. The same applies to the lyrics, which you can find below.</t>
   </si>
 </sst>
 </file>
@@ -749,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,9 +966,8 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="str">
-        <f>""</f>
-        <v/>
+      <c r="D14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,17 +1256,14 @@
       <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="C35" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <f>""</f>
-        <v/>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB5FB5E-E3D0-4B29-BAB1-F5A7BAA707A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204CE5E-20BC-45EB-AE28-EF2D40AC5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>Key</t>
   </si>
@@ -421,6 +421,27 @@
   </si>
   <si>
     <t>This game is based on an old Polish children's song, passed down orally. The music is based on the melody I was taught, but you might know a slightly different version of it. The same applies to the lyrics, which you can find below.</t>
+  </si>
+  <si>
+    <t>The gnome runs automatically towards his house. Along the way, you can either jump or roll. There are four levels, each becoming progressively more interesting than the last.
+In Levels 1, 2, and 3, you can jump by tapping anywhere on the screen. If you are using a computer, you can click with the mouse or use the spacebar.
+In Level 4, you must also roll away from the owl! To jump, tap the left half of the screen, and to roll, tap the right half of the screen.
+If you are using a computer, you can click with the mouse or use the spacebar to jump, and the Control key to roll.</t>
+  </si>
+  <si>
+    <t>Der Zwerg läuft automatisch zu seinem Haus. Auf dem Weg kannst du entweder springen oder rollen. Es gibt vier Stufen, wobei jede Stufe interessanter als die vorherige wird.
+In Stufe 1, 2 und 3 kannst du springen, indem du irgendwo auf dem Bildschirm tippst. Wenn du einen Computer verwendest, kannst du mit der Maus klicken oder die Leertaste benutzen.
+In Stufe 4 musst du auch vor der Eule wegrollen! Um zu springen, tippe auf die linke Hälfte des Bildschirms, und um zu rollen, tippe auf die rechte Hälfte des Bildschirms.
+Wenn du einen Computer verwendest, kannst du mit der Maus klicken oder die Leertaste zum Springen und die Strg-Taste zum Rollen verwenden.</t>
+  </si>
+  <si>
+    <t>Krasnolud biegnie automatycznie do swojego domu. W trakcie podróży możesz skakać lub toczyć się. Są cztery poziomy, z których każdy jest coraz ciekawszy od poprzedniego.
+Na poziomach 1, 2 i 3 możesz skakać, dotykając dowolnego miejsca na ekranie. Jeśli używasz komputera, możesz kliknąć myszką lub użyć spacji.
+Na poziomie 4 musisz także toczyć się na ziemi, aby uniknąć sowy! Aby skoczyć, dotknij lewej połowy ekranu, a aby się toczyć, dotknij prawej połowy ekranu.
+Jeśli używasz komputera, możesz kliknąć myszką lub użyć spacji do skakania i klawisza Ctrl do toczenia się.</t>
+  </si>
+  <si>
+    <t>HowToPlayDesc</t>
   </si>
 </sst>
 </file>
@@ -759,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,6 +1299,20 @@
       </c>
       <c r="D36" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204CE5E-20BC-45EB-AE28-EF2D40AC5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B616F61-B274-4232-80B1-CEFAF888BC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>Key</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>GameName</t>
-  </si>
-  <si>
-    <t>Kid Game</t>
   </si>
   <si>
     <t>PlayerName</t>
@@ -442,6 +439,42 @@
   </si>
   <si>
     <t>HowToPlayDesc</t>
+  </si>
+  <si>
+    <t>Gnome and Owl</t>
+  </si>
+  <si>
+    <t>Gnom und Eule</t>
+  </si>
+  <si>
+    <t>Krasnoludek i Sowa</t>
+  </si>
+  <si>
+    <t>Gnome</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>Gnom</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>Eule</t>
+  </si>
+  <si>
+    <t>Krasnoludek</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Sowa</t>
   </si>
 </sst>
 </file>
@@ -780,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,139 +843,139 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="str">
         <f>""</f>
@@ -954,262 +987,262 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -1217,102 +1250,144 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="str">
+      <c r="C37" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="D34" t="str">
+      <c r="D37" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1341,12 +1416,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Data/Localization.xlsx
+++ b/Assets/Game/Data/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\_private\kid-game\Assets\Game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B616F61-B274-4232-80B1-CEFAF888BC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAFB7AC-9BE9-4938-B8AD-D0F70D99497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>OpenSourceNotice</t>
   </si>
   <si>
-    <t>This game is open source. You can find it on &lt;color=#A52A2A&gt;&lt;link source="githuburl"&gt;GitHub  \uf35d&lt;/link&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Pestępój</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>Sowa</t>
+  </si>
+  <si>
+    <t>This game is open source. You can find it on &lt;color=#A52A2A&gt;&lt;link source="githuburl"&gt;GitHub: https://github.com/SMaleck/kid-game&lt;/link&gt;&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,55 +987,55 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>113</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C37" t="str">
         <f>""</f>
@@ -1350,44 +1350,44 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
